--- a/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_-75%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_-75%.xlsx
@@ -70440,6 +70440,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12.476</v>
+      </c>
       <c r="C2" t="n">
         <v>399.9605555555556</v>
       </c>
@@ -70495,6 +70498,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.09233333333333</v>
+      </c>
       <c r="C3" t="n">
         <v>399.285</v>
       </c>
@@ -70550,6 +70556,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.09383333333333</v>
+      </c>
       <c r="C4" t="n">
         <v>383.4455555555555</v>
       </c>
@@ -70605,6 +70614,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.33983333333333</v>
+      </c>
       <c r="C5" t="n">
         <v>411.6488888888889</v>
       </c>
@@ -70660,6 +70672,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.40683333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>416.6827777777778</v>
       </c>
@@ -70715,6 +70730,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.603</v>
+      </c>
       <c r="C7" t="n">
         <v>396.2594444444445</v>
       </c>
@@ -70770,6 +70788,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>14.07266666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>417.1438888888889</v>
       </c>
@@ -70825,6 +70846,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>11.52616666666667</v>
+      </c>
       <c r="C9" t="n">
         <v>383.1272222222223</v>
       </c>
@@ -70880,6 +70904,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>11.86666666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>407.9983333333333</v>
       </c>
@@ -70935,6 +70962,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>14.16316666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>412.1927777777777</v>
       </c>
@@ -70990,6 +71020,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.45766666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>414.7872222222222</v>
       </c>
@@ -71045,6 +71078,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.7695</v>
+      </c>
       <c r="C13" t="n">
         <v>428.5972222222223</v>
       </c>
@@ -71100,6 +71136,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.64666666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>418.5411111111111</v>
       </c>
@@ -71155,6 +71194,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.91883333333333</v>
+      </c>
       <c r="C15" t="n">
         <v>413.3261111111111</v>
       </c>
@@ -71210,6 +71252,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.707</v>
+      </c>
       <c r="C16" t="n">
         <v>407.4311111111111</v>
       </c>
@@ -71265,6 +71310,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>13.87666666666667</v>
+      </c>
       <c r="C17" t="n">
         <v>410.3966666666666</v>
       </c>
@@ -71320,6 +71368,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.27233333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>416.7422222222223</v>
       </c>
@@ -71375,6 +71426,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>11.868</v>
+      </c>
       <c r="C19" t="n">
         <v>397.0138888888889</v>
       </c>
@@ -71430,6 +71484,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.11616666666667</v>
+      </c>
       <c r="C20" t="n">
         <v>409.0594444444445</v>
       </c>
@@ -71485,6 +71542,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.88216666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>407.5088888888889</v>
       </c>
@@ -71540,6 +71600,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.32283333333333</v>
+      </c>
       <c r="C22" t="n">
         <v>402.7238888888889</v>
       </c>
@@ -71595,6 +71658,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.74616666666667</v>
+      </c>
       <c r="C23" t="n">
         <v>406.2438888888889</v>
       </c>
@@ -71650,6 +71716,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>12.48133333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>389.4488888888889</v>
       </c>
@@ -71705,6 +71774,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.35033333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>394.4433333333333</v>
       </c>
@@ -71760,6 +71832,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>11.84116666666667</v>
+      </c>
       <c r="C26" t="n">
         <v>408.3027777777778</v>
       </c>
@@ -71815,6 +71890,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.52583333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>395.765</v>
       </c>
@@ -71870,6 +71948,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>10.982</v>
+      </c>
       <c r="C28" t="n">
         <v>386.9394444444445</v>
       </c>
@@ -71925,6 +72006,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.3025</v>
+      </c>
       <c r="C29" t="n">
         <v>422.9283333333333</v>
       </c>
@@ -71980,6 +72064,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.4885</v>
+      </c>
       <c r="C30" t="n">
         <v>409.8244444444445</v>
       </c>
@@ -72034,6 +72121,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.28716666666667</v>
       </c>
       <c r="C31" t="n">
         <v>385.5161111111111</v>
